--- a/data/nickel.xlsx
+++ b/data/nickel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_436980E1F613C8264F2C4CED6577F1D56FCE292C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{874E9CF9-739B-4AB0-8410-0253FF53FF74}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -163,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +222,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -227,13 +236,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -305,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,14 +533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -552,7 +581,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="1">
-        <v>56.33778</v>
+        <v>56.337780000000002</v>
       </c>
       <c r="E2" s="1">
         <v>-62.0944</v>
@@ -561,7 +590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,16 +601,16 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>61.6916</v>
+        <v>61.691600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>-73.6666</v>
+        <v>-73.666600000000003</v>
       </c>
       <c r="F3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -592,16 +621,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="1">
-        <v>46.6742</v>
+        <v>46.674199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>-81.3425</v>
+        <v>-81.342500000000001</v>
       </c>
       <c r="F4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,16 +641,16 @@
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>46.495</v>
+        <v>46.494999999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>-81.0561</v>
+        <v>-81.056100000000001</v>
       </c>
       <c r="F5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,16 +661,16 @@
         <v>37</v>
       </c>
       <c r="D6" s="1">
-        <v>55.71286</v>
+        <v>55.712859999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>-97.85106</v>
+        <v>-97.851060000000004</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,16 +681,16 @@
         <v>38</v>
       </c>
       <c r="D7" s="1">
-        <v>46.658</v>
+        <v>46.658000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>-80.7972</v>
+        <v>-80.797200000000004</v>
       </c>
       <c r="F7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -672,17 +701,17 @@
         <v>39</v>
       </c>
       <c r="D8" s="1">
-        <v>46.63863</v>
+        <v>46.638629999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-81.39976</v>
+        <v>-81.399760000000001</v>
       </c>
       <c r="F8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -692,17 +721,17 @@
         <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>46.5667</v>
+        <v>46.566699999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>-80.8562</v>
+        <v>-80.856200000000001</v>
       </c>
       <c r="F9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -710,17 +739,17 @@
         <v>41</v>
       </c>
       <c r="D10" s="1">
-        <v>46.3813</v>
+        <v>46.381300000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>-81.4541</v>
+        <v>-81.454099999999997</v>
       </c>
       <c r="F10">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -728,16 +757,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>46.4746</v>
+        <v>46.474600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>-81.09099999999999</v>
+        <v>-81.090999999999994</v>
       </c>
       <c r="F11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -748,17 +777,17 @@
         <v>42</v>
       </c>
       <c r="D12" s="1">
-        <v>61.563858</v>
+        <v>61.563858000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>-73.437361</v>
+        <v>-73.437360999999996</v>
       </c>
       <c r="F12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -768,17 +797,17 @@
         <v>43</v>
       </c>
       <c r="D13" s="1">
-        <v>46.4729</v>
+        <v>46.472900000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>-81.1854</v>
+        <v>-81.185400000000001</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -786,16 +815,16 @@
         <v>44</v>
       </c>
       <c r="D14" s="1">
-        <v>46.43125</v>
+        <v>46.431249999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>-81.34961</v>
+        <v>-81.349609999999998</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -806,17 +835,17 @@
         <v>45</v>
       </c>
       <c r="D15" s="1">
-        <v>48.3612</v>
+        <v>48.361199999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>-81.11660000000001</v>
+        <v>-81.116600000000005</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -826,17 +855,17 @@
         <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>46.6435</v>
+        <v>46.643500000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>-81.3836</v>
+        <v>-81.383600000000001</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -844,17 +873,17 @@
         <v>46</v>
       </c>
       <c r="D17" s="1">
-        <v>46.5327</v>
+        <v>46.532699999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>-80.99760000000001</v>
+        <v>-80.997600000000006</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -862,16 +891,16 @@
         <v>36</v>
       </c>
       <c r="D18" s="1">
-        <v>46.459</v>
+        <v>46.459000000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>-81.0758</v>
+        <v>-81.075800000000001</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,13 +914,13 @@
         <v>46.6599</v>
       </c>
       <c r="E19" s="1">
-        <v>-81.37649999999999</v>
+        <v>-81.376499999999993</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,16 +931,16 @@
         <v>43</v>
       </c>
       <c r="D20" s="1">
-        <v>46.458</v>
+        <v>46.457999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>-81.2115</v>
+        <v>-81.211500000000001</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,10 +951,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="1">
-        <v>46.41306</v>
+        <v>46.413060000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>-81.38424000000001</v>
+        <v>-81.384240000000005</v>
       </c>
       <c r="F21">
         <v>3</v>
